--- a/data/davis matches/davis_2022.xlsx
+++ b/data/davis matches/davis_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA99"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,7 +1091,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1118,19 +1118,15 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
         <v>7</v>
       </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1146,26 +1142,30 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Guido Pella</t>
+          <t>John Millman</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>17 May 1990</t>
+          <t>14 Jun 1989</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1080=</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>540=</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1205,17 +1205,13 @@
       <c r="G9" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1231,26 +1227,30 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Pablo Carreno Busta</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12 Jul 1991</t>
+          <t>23 Jun 1990</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr"/>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>1387=</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1285,12 +1285,14 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1310,26 +1312,30 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Diego Schwartzman</t>
+          <t>Alex De Minaur</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16 Aug 1992</t>
+          <t>17 Feb 1999</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1340,7 +1346,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1367,9 +1373,11 @@
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1389,30 +1397,26 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1423,7 +1427,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1450,11 +1454,9 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1474,37 +1476,45 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Maximo Gonzalez</t>
+          <t>John Peers</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Leonardo Mayer</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20 Jul 1983</t>
+          <t>25 Jul 1988</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>58</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>15 May 1987</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+          <t>20 Apr 1994</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="AA12" t="n">
         <v>2019</v>
       </c>
@@ -1512,7 +1522,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1539,11 +1549,9 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1563,45 +1571,45 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12 Apr 1986</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
+          <t>23 Jun 1990</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1=</t>
+          <t>1387=</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>2019</v>
       </c>
@@ -1609,7 +1617,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1629,14 +1637,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1658,28 +1666,28 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Kyle Edmund</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>RUSSIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20 Oct 1997</t>
+          <t>08 Jan 1995</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>461</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1046=</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -1692,7 +1700,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1712,14 +1720,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1741,30 +1749,22 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>23 Jun 1990</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>1387=</t>
-        </is>
-      </c>
+          <t>16 Oct 1983</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -1775,7 +1775,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1795,23 +1795,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>7</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -1826,28 +1830,28 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>RUSSIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>21 May 1996</t>
+          <t>23 May 1990</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>186</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>865</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1860,7 +1864,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1880,23 +1884,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>6</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -1911,26 +1919,30 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Jan-Lennard Struff</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>25 Apr 1990</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1941,7 +1953,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1961,25 +1973,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -1989,54 +2003,34 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Andrey Rublev</t>
-        </is>
-      </c>
+          <t>Guido Pella</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>RUSSIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>21 May 1996</t>
+          <t>17 May 1990</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>20 Oct 1997</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
+          <t>1080=</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>2019</v>
       </c>
@@ -2044,7 +2038,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2064,25 +2058,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="K19" t="n">
         <v>7</v>
       </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2092,49 +2088,33 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
+          <t>Pablo Carreno Busta</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23 Jun 1990</t>
+          <t>12 Jul 1991</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>1387=</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>15 Apr 1999</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>2019</v>
@@ -2143,7 +2123,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2163,22 +2143,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -2189,35 +2167,31 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Kyle Edmund</t>
+          <t>Diego Schwartzman</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>08 Jan 1995</t>
+          <t>16 Aug 1992</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>1046=</t>
-        </is>
-      </c>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2228,7 +2202,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2248,11 +2222,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -2261,9 +2235,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -2274,12 +2246,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -2290,11 +2262,19 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2305,7 +2285,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2325,16 +2305,18 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2349,36 +2331,40 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Daniel Evans</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Maximo Gonzalez</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Leonardo Mayer</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23 May 1990</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
+          <t>20 Jul 1983</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr"/>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>15 May 1987</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
@@ -2388,7 +2374,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2408,16 +2394,18 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2432,15 +2420,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>Marcel Granollers</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>Rafael Nadal</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>SPAIN</t>
@@ -2448,22 +2440,30 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
+          <t>12 Apr 1986</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>1=</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
           <t>03 Jun 1986</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>860</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>2019</v>
       </c>
@@ -2503,12 +2503,8 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2519,46 +2515,38 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Jamie Murray</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Neal Skupski</t>
-        </is>
-      </c>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>RUSSIA</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13 Feb 1986</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
+          <t>20 Oct 1997</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>01 Dec 1989</t>
-        </is>
-      </c>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>2019</v>
       </c>
@@ -2590,20 +2578,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>10</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2614,46 +2598,38 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>03 Jun 1986</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>23 Jun 1990</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>1387=</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>2019</v>
       </c>
@@ -2661,7 +2637,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2681,21 +2657,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2707,33 +2683,33 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Felix Auger-Aliassime</t>
+          <t>Karen Khachanov</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>RUSSIA</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>08 Aug 2000</t>
+          <t>21 May 1996</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>95</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2746,7 +2722,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2766,21 +2742,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2792,28 +2768,28 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>14 Apr 1988</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2827,7 +2803,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2847,7 +2823,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2856,14 +2832,16 @@
       <c r="G28" t="n">
         <v>6</v>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>7</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -2873,34 +2851,54 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Karen Khachanov</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>RUSSIA</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>21 May 1996</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>20 Oct 1997</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
       <c r="AA28" t="n">
         <v>2019</v>
       </c>
@@ -2908,7 +2906,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2928,23 +2926,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>6</v>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>9</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>7</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
@@ -2954,37 +2954,49 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>23 Jun 1990</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>609</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>860</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+          <t>1387=</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>15 Apr 1999</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>2019</v>
@@ -2993,41 +3005,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
-      </c>
-      <c r="H30" t="n">
         <v>7</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
         <v>7</v>
       </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3042,75 +3056,77 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Kyle Edmund</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20 Oct 1997</t>
+          <t>08 Jan 1995</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>461</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1046=</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
         <v>3</v>
       </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -3125,64 +3141,60 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Elias Ymer</t>
+          <t>Feliciano Lopez</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>10 Apr 1996</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>1364=</t>
-        </is>
-      </c>
+          <t>20 Sep 1981</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -3204,64 +3216,68 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Daniil Medvedev</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>11 Feb 1996</t>
+          <t>23 May 1990</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>186</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>865</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -3283,49 +3299,61 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Mikael Ymer</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>09 Sep 1998</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3337,8 +3365,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8</v>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -3349,15 +3381,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Daniel Evans</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Jamie Murray</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Neal Skupski</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr">
         <is>
           <t>GREAT BRITAIN</t>
@@ -3365,59 +3401,71 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23 May 1990</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
+          <t>13 Feb 1986</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr"/>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>01 Dec 1989</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="AA34" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -3428,73 +3476,87 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Peter Gojowczyk</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>15 Jul 1989</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>796</t>
-        </is>
-      </c>
+          <t>20 Sep 1981</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
       <c r="AA35" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -3507,77 +3569,79 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Cameron Norrie</t>
+          <t>Felix Auger-Aliassime</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>23 Aug 1995</t>
+          <t>08 Aug 2000</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>19</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>554</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -3590,66 +3654,66 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jan-Lennard Struff</t>
+          <t>Roberto Bautista Agut</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>25 Apr 1990</t>
+          <t>14 Apr 1988</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -3657,11 +3721,9 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>10</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -3673,74 +3735,66 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Joe Salisbury</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Neal Skupski</t>
-        </is>
-      </c>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20 Apr 1992</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>01 Dec 1989</t>
-        </is>
-      </c>
+          <t>15 Apr 1999</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -3748,11 +3802,9 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>12</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -3764,54 +3816,46 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Kevin Krawietz</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>24 Jan 1992</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>20=</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>19 Nov 1987</t>
-        </is>
-      </c>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>20=</t>
-        </is>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
+          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3834,18 +3878,18 @@
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>7</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -3860,28 +3904,28 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Lorenzo Sonego</t>
+          <t>Andrey Rublev</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>11 May 1995</t>
+          <t>20 Oct 1997</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>145</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -3894,7 +3938,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
+          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3914,21 +3958,21 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
         <v>7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>6</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
@@ -3943,26 +3987,30 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Elias Ymer</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SWEDEN</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27 Feb 1998</t>
+          <t>10 Apr 1996</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>1364=</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -3973,7 +4021,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
+          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3993,20 +4041,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>7</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -4022,28 +4066,28 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
+          <t>Daniil Medvedev</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>16 Aug 2001</t>
+          <t>11 Feb 1996</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>335</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4056,7 +4100,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
+          <t xml:space="preserve"> 02 Dec - 02 Dec 2021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4076,20 +4120,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>4</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -4105,25 +4145,21 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Mikael Ymer</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SWEDEN</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>09 Sep 1998</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -4135,7 +4171,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
+          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4155,10 +4191,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -4175,54 +4211,38 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Jannik Sinner</t>
-        </is>
-      </c>
+          <t>Daniel Evans</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24 May 1987</t>
+          <t>23 May 1990</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>186</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>832</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>16 Aug 2001</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>2021</v>
       </c>
@@ -4230,7 +4250,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
+          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4250,10 +4270,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -4270,46 +4290,34 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nikola Mektic</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Peter Gojowczyk</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24 Dec 1988</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
+          <t>15 Jul 1989</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>2021</v>
       </c>
@@ -4317,7 +4325,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
+          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4343,17 +4351,15 @@
         <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>11</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
@@ -4363,33 +4369,33 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Miomir Kecmanovic</t>
+          <t>Cameron Norrie</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>31 Aug 1999</t>
+          <t>23 Aug 1995</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>189</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -4402,7 +4408,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
+          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4425,20 +4431,18 @@
         <v>7</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>13</v>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
@@ -4448,31 +4452,35 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Jan-Lennard Struff</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>26 Dec 1987</t>
+          <t>25 Apr 1990</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
@@ -4483,7 +4491,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
+          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4511,8 +4519,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5</v>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -4523,34 +4535,46 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Joe Salisbury</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Neal Skupski</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22 May 1987</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
+          <t>20 Apr 1992</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>01 Dec 1989</t>
+        </is>
+      </c>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="AA48" t="n">
         <v>2021</v>
       </c>
@@ -4558,7 +4582,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
+          <t xml:space="preserve"> 30 Nov - 30 Nov 2021</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4578,16 +4602,20 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>12</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7</v>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -4598,38 +4626,46 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Alexander Bublik</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Kevin Krawietz</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>17 Jun 1997</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>24 Jan 1992</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr"/>
+          <t>20=</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>19 Nov 1987</t>
+        </is>
+      </c>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>20=</t>
+        </is>
+      </c>
       <c r="AA49" t="n">
         <v>2021</v>
       </c>
@@ -4637,7 +4673,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
+          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4660,14 +4696,16 @@
         <v>6</v>
       </c>
       <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
         <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -4679,45 +4717,37 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Nikola Cacic</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
+          <t>Lorenzo Sonego</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>07 Dec 1990</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr"/>
+          <t>11 May 1995</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>22 May 1987</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>2021</v>
@@ -4726,7 +4756,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
+          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4746,17 +4776,19 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="n">
-        <v>6</v>
-      </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>7</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -4768,46 +4800,34 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Andrey Golubev</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Aleksandr Nedovyesov</t>
-        </is>
-      </c>
+          <t>Borna Gojo</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>22 Jul 1987</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>15 Feb 1987</t>
-        </is>
-      </c>
+          <t>27 Feb 1998</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>2021</v>
       </c>
@@ -4815,7 +4835,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
+          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4831,20 +4851,24 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>7</v>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4855,33 +4879,33 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20 Oct 1997</t>
+          <t>16 Aug 2001</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>249</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -4894,7 +4918,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
+          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4910,20 +4934,24 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>4</v>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4934,35 +4962,31 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Dominik Koepfer</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>29 Apr 1994</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
@@ -4973,7 +4997,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
+          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4989,14 +5013,14 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -5013,38 +5037,54 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Daniil Medvedev</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Jannik Sinner</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>11 Feb 1996</t>
+          <t>24 May 1987</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>71</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>16 Aug 2001</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
       <c r="AA54" t="n">
         <v>2021</v>
       </c>
@@ -5052,7 +5092,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
+          <t xml:space="preserve"> 29 Nov - 29 Nov 2021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5068,14 +5108,14 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -5092,38 +5132,46 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Jan-Lennard Struff</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>25 Apr 1990</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+          <t>24 Dec 1988</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr"/>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="AA55" t="n">
         <v>2021</v>
       </c>
@@ -5131,7 +5179,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
+          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5147,23 +5195,27 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F56" t="n">
         <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>11</v>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -5173,54 +5225,38 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Aslan Karatsev</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Karen Khachanov</t>
-        </is>
-      </c>
+          <t>Miomir Kecmanovic</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04 Sep 1993</t>
+          <t>31 Aug 1999</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>53</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>21 May 1996</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>2021</v>
       </c>
@@ -5228,7 +5264,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
+          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5244,23 +5280,27 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="G57" t="n">
-        <v>6</v>
-      </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>7</v>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>13</v>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
@@ -5270,46 +5310,34 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Kevin Krawietz</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
+          <t>Mikhail Kukushkin</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>24 Jan 1992</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>20=</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>19 Nov 1987</t>
-        </is>
-      </c>
+          <t>26 Dec 1987</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>20=</t>
-        </is>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>2021</v>
       </c>
@@ -5317,7 +5345,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
+          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5333,18 +5361,16 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
-      <c r="H58" t="n">
-        <v>6</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5359,28 +5385,28 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Novak Djokovic</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>27 Feb 1998</t>
+          <t>22 May 1987</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -5394,7 +5420,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
+          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5410,18 +5436,16 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5436,33 +5460,33 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Dusan Lajovic</t>
+          <t>Alexander Bublik</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>30 Jun 1990</t>
+          <t>17 Jun 1997</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>27</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>119</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -5475,7 +5499,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
+          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5491,16 +5515,18 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -5515,33 +5541,45 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Nikola Cacic</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+          <t>07 Dec 1990</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>22 May 1987</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>2021</v>
@@ -5550,7 +5588,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
+          <t xml:space="preserve"> 01 Dec - 01 Dec 2021</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5566,16 +5604,18 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -5590,34 +5630,46 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>Andrey Golubev</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Aleksandr Nedovyesov</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22 May 1987</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+          <t>22 Jul 1987</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>15 Feb 1987</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="AA61" t="n">
         <v>2021</v>
       </c>
@@ -5625,7 +5677,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
+          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5645,7 +5697,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -5665,46 +5717,38 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Nikola Mektic</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24 Dec 1988</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
+          <t>20 Oct 1997</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>2021</v>
       </c>
@@ -5712,7 +5756,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
+          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5732,10 +5776,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -5752,45 +5796,37 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Filip Krajinovic</t>
-        </is>
-      </c>
+          <t>Dominik Koepfer</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22 May 1987</t>
+          <t>29 Apr 1994</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>27 Feb 1992</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>633</t>
-        </is>
-      </c>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>2021</v>
@@ -5799,7 +5835,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
+          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5815,22 +5851,20 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F64" t="n">
         <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>7</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -5841,12 +5875,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Daniil Medvedev</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -5857,17 +5891,17 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20 Oct 1997</t>
+          <t>11 Feb 1996</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>335</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -5880,7 +5914,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
+          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5896,22 +5930,20 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F65" t="n">
         <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>5</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -5922,31 +5954,35 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Jan-Lennard Struff</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>27 Feb 1998</t>
+          <t>25 Apr 1990</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
@@ -5957,7 +5993,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
+          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5973,21 +6009,21 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -5999,15 +6035,19 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Daniil Medvedev</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Aslan Karatsev</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Karen Khachanov</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr">
         <is>
           <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
@@ -6015,22 +6055,34 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>11 Feb 1996</t>
+          <t>04 Sep 1993</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>99</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>21 May 1996</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="AA66" t="n">
         <v>2021</v>
       </c>
@@ -6038,7 +6090,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
+          <t xml:space="preserve"> 04 Dec - 04 Dec 2021</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6054,21 +6106,21 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -6080,34 +6132,46 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Kevin Krawietz</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+          <t>24 Jan 1992</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>20=</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>19 Nov 1987</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>20=</t>
+        </is>
+      </c>
       <c r="AA67" t="n">
         <v>2021</v>
       </c>
@@ -6115,38 +6179,38 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>9</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -6162,72 +6226,68 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Lorenzo Sonego</t>
+          <t>Borna Gojo</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>11 May 1995</t>
+          <t>27 Feb 1998</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F69" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" t="n">
         <v>3</v>
       </c>
-      <c r="G69" t="n">
-        <v>6</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>7</v>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -6243,67 +6303,69 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
+          <t>Dusan Lajovic</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>20 Jan 1998</t>
+          <t>30 Jun 1990</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>551=</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -6320,61 +6382,57 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Lorenzo Musetti</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>03 Mar 2002</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -6382,9 +6440,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>10</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -6401,61 +6457,57 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Taylor Fritz</t>
+          <t>Novak Djokovic</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28 Oct 1997</t>
+          <t>22 May 1987</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -6480,76 +6532,72 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Simone Bolelli</t>
+          <t>Nikola Mektic</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>Mate Pavic</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>08 Oct 1985</t>
+          <t>24 Dec 1988</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>24 May 1987</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA72" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 03 Dec - 03 Dec 2021</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -6571,79 +6619,81 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Tommy Paul</t>
+          <t>Novak Djokovic</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Filip Krajinovic</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17 May 1997</t>
+          <t>22 May 1987</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>24 Sep 1992</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr"/>
+          <t>27 Feb 1992</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F74" t="n">
         <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
-      </c>
-      <c r="H74" t="n">
         <v>7</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
         <v>7</v>
       </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
@@ -6658,75 +6708,73 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Jan-Lennard Struff</t>
+          <t>Andrey Rublev</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>25 Apr 1990</t>
+          <t>20 Oct 1997</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>145</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
       </c>
-      <c r="H75" t="n">
-        <v>6</v>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>2</v>
-      </c>
+      <c r="L75" t="n">
+        <v>5</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
@@ -6741,23 +6789,23 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Borna Gojo</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>27 Feb 1998</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>202</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -6765,42 +6813,42 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -6818,60 +6866,64 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Oscar Otte</t>
+          <t>Daniil Medvedev</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>RUSSIAN TENNIS FEDERATION (RTF)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>16 Jul 1993</t>
+          <t>11 Feb 1996</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>648</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
+          <t xml:space="preserve"> 05 Dec - 05 Dec 2021</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -6895,35 +6947,31 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Felix Auger-Aliassime</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>08 Aug 2000</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="78">
@@ -6952,15 +7000,15 @@
         <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>9</v>
+      </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -6971,46 +7019,38 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Kevin Krawietz</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
+          <t>Lorenzo Sonego</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>24 Jan 1992</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr"/>
+          <t>11 May 1995</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>20=</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>19 Nov 1987</t>
-        </is>
-      </c>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>20=</t>
-        </is>
-      </c>
+      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>2022</v>
       </c>
@@ -7038,18 +7078,18 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
       </c>
-      <c r="H79" t="n">
-        <v>6</v>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>7</v>
+      </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -7060,49 +7100,21 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>CANADA</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>23 Jun 1990</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>1387=</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>15 Apr 1999</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
+          <t>Franklin Tiafoe</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>2022</v>
@@ -7111,7 +7123,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7134,15 +7146,15 @@
         <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>7</v>
-      </c>
+      <c r="K80" t="n">
+        <v>8</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -7153,31 +7165,35 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Lorenzo Musetti</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>03 Mar 2002</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
@@ -7188,7 +7204,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7208,7 +7224,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -7216,10 +7232,10 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>4</v>
-      </c>
+      <c r="K81" t="n">
+        <v>10</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -7230,31 +7246,35 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
+          <t>Taylor Fritz</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>14 Apr 1988</t>
+          <t>28 Oct 1997</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
@@ -7265,7 +7285,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7285,21 +7305,17 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
       </c>
-      <c r="H82" t="n">
-        <v>7</v>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>7</v>
-      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
@@ -7309,34 +7325,50 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
+          <t>Simone Bolelli</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+          <t>08 Oct 1985</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
       <c r="AA82" t="n">
         <v>2022</v>
       </c>
@@ -7344,7 +7376,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7364,21 +7396,17 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
-      </c>
-      <c r="H83" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>5</v>
-      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
@@ -7388,32 +7416,40 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Pablo Carreno Busta</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+          <t>Tommy Paul</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Jack Sock</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>12 Jul 1991</t>
+          <t>17 May 1997</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>24 Sep 1992</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="n">
@@ -7423,7 +7459,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7439,27 +7475,25 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F84" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
         <v>7</v>
-      </c>
-      <c r="G84" t="n">
-        <v>6</v>
-      </c>
-      <c r="H84" t="n">
-        <v>6</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>7</v>
       </c>
-      <c r="L84" t="n">
-        <v>5</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
@@ -7474,28 +7508,28 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Lorenzo Sonego</t>
+          <t>Jan-Lennard Struff</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11 May 1995</t>
+          <t>25 Apr 1990</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>36</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>132</t>
         </is>
       </c>
       <c r="X84" t="inlineStr"/>
@@ -7508,7 +7542,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7524,27 +7558,25 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4</v>
-      </c>
-      <c r="L85" t="n">
-        <v>7</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
@@ -7589,7 +7621,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7605,11 +7637,11 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -7617,7 +7649,9 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -7634,30 +7668,26 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Lorenzo Musetti</t>
+          <t>Oscar Otte</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>03 Mar 2002</t>
+          <t>16 Jul 1993</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
@@ -7668,7 +7698,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7684,11 +7714,11 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -7696,7 +7726,9 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>7</v>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -7747,7 +7779,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7763,21 +7795,21 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F88" t="n">
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
-      </c>
-      <c r="H88" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>2</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -7794,43 +7826,39 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Matteo Berrettini</t>
+          <t>Kevin Krawietz</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>Tim Puetz</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>12 Apr 1996</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr"/>
+          <t>24 Jan 1992</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>20=</t>
+        </is>
+      </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>24 May 1987</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
+          <t>19 Nov 1987</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>20=</t>
         </is>
       </c>
       <c r="AA88" t="n">
@@ -7840,7 +7868,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2022</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7856,21 +7884,21 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>7</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
@@ -7887,12 +7915,12 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Felix Auger-Aliassime</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -7902,34 +7930,30 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>08 Aug 2000</t>
+          <t>23 Jun 1990</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>609</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1387=</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>23 Jun 1990</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>1387=</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>2022</v>
       </c>
@@ -7937,7 +7961,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2022</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7953,16 +7977,18 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F90" t="n">
         <v>4</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
-      </c>
-      <c r="H90" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -7982,7 +8008,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Thanasi Kokkinakis</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -7993,17 +8019,17 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>10 Apr 1996</t>
+          <t>20 Apr 1994</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>33</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>13</t>
         </is>
       </c>
       <c r="X90" t="inlineStr"/>
@@ -8016,7 +8042,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2022</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8032,16 +8058,18 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
-      </c>
-      <c r="H91" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -8061,26 +8089,30 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Tallon Griekspoor</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>02 Jul 1996</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -8091,7 +8123,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2022</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8107,16 +8139,18 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -8170,7 +8204,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2022</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8186,16 +8220,18 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -8215,26 +8251,30 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Botic Van De Zandschulp</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>04 Oct 1995</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr"/>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
@@ -8245,7 +8285,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -8261,7 +8301,7 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -8270,15 +8310,13 @@
       <c r="G94" t="n">
         <v>7</v>
       </c>
-      <c r="H94" t="n">
-        <v>6</v>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>7</v>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -8289,54 +8327,34 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Max Purcell</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Jordan Thompson</t>
-        </is>
-      </c>
+          <t>Borna Coric</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>03 Apr 1998</t>
+          <t>14 Nov 1996</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>20 Apr 1994</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>2022</v>
       </c>
@@ -8344,7 +8362,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -8360,24 +8378,22 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>4</v>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -8388,46 +8404,34 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Nikola Mektic</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Roberto Bautista Agut</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>24 Dec 1988</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
+          <t>14 Apr 1988</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>2022</v>
       </c>
@@ -8435,7 +8439,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -8451,21 +8455,25 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
       </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>7</v>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
@@ -8475,28 +8483,28 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -8510,7 +8518,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2022</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -8526,21 +8534,25 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
-      </c>
-      <c r="H97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
@@ -8550,35 +8562,31 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Thanasi Kokkinakis</t>
+          <t>Pablo Carreno Busta</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>10 Apr 1996</t>
+          <t>12 Jul 1991</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
@@ -8589,7 +8597,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -8605,20 +8613,26 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G98" t="n">
         <v>6</v>
       </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>7</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5</v>
+      </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -8629,33 +8643,33 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Felix Auger-Aliassime</t>
+          <t>Lorenzo Sonego</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>08 Aug 2000</t>
+          <t>11 May 1995</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>58</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>236</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -8668,7 +8682,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -8684,20 +8698,26 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G99" t="n">
+        <v>7</v>
+      </c>
+      <c r="H99" t="n">
         <v>4</v>
       </c>
-      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>4</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7</v>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -8708,35 +8728,31 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Alex De Minaur</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>17 Feb 1999</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
@@ -8744,6 +8760,1164 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Lorenzo Musetti</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>03 Mar 2002</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>6</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Felix Auger-Aliassime</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>08 Aug 2000</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Matteo Berrettini</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>12 Apr 1996</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="AA102" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 Nov - 26 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>7</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>7</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Felix Auger-Aliassime</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>08 Aug 2000</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>23 Jun 1990</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>1387=</t>
+        </is>
+      </c>
+      <c r="AA103" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Thanasi Kokkinakis</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>10 Apr 1996</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>6</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Borna Coric</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>6</v>
+      </c>
+      <c r="G106" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>17 Feb 1999</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>6</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Max Purcell</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Jordan Thompson</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>03 Apr 1998</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>20 Apr 1994</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AA108" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 25 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>7</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>7</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>24 Dec 1988</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA109" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>6</v>
+      </c>
+      <c r="G110" t="n">
+        <v>6</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>15 Apr 1999</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Thanasi Kokkinakis</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>10 Apr 1996</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>6</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Felix Auger-Aliassime</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>08 Aug 2000</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 Nov - 27 Nov 2022</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>17 Feb 1999</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="n">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
